--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E6675D-2734-4FBF-B255-5852C70E6418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A03DFF-8080-4CE5-B96B-925AB82AA40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,52 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potion</t>
-  </si>
-  <si>
-    <t>① Activate: Add 1 potion. Add 1 extra potion for every 2 [Potion] card under this card.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷轴</t>
-  </si>
-  <si>
-    <t>Scroll</t>
-  </si>
-  <si>
-    <t>① Activate: Add 1 scroll. Add 1 extra potion for every 2 [Scroll] card under this card.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>① Activate: Add 1 gold. Add 1 extra potion for every 2 [Gold] card under this card.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹药</t>
-  </si>
-  <si>
-    <t>Ammo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>① Activate: Add 1 ammo. Add 1 extra potion for every 2 [Ammo] card under this card.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Food</t>
   </si>
@@ -123,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币加1。可以额外消耗1张同名牌，改为加3。可以额外消耗2张同名牌，改为加5。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地下城图鉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,27 +94,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为1张带有“药水”标签的道具牌充1能。可以额外消耗1张同名牌，改为充3能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为1张带有“卷轴”标签的道具牌充1能。可以额外消耗1张同名牌，改为充3能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为1张带有“弹药”标签的道具牌充1能。可以额外消耗1张同名牌，改为充3能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为1张带有“食物”标签的道具牌充1能。可以额外消耗1张同名牌，改为充3能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绷带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回复1生命。可以额外消耗1张同名牌，改为回复3生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为1张道具牌充1能。可以额外消耗1张同名牌，改为充3能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主牌堆抽2张牌。每次整理战利品只能使用1张。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选手牌或场上1张牌，从主牌堆获得其1张同名牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,171 +465,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
         <v>1</v>
       </c>
     </row>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A03DFF-8080-4CE5-B96B-925AB82AA40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C536EB-C0BC-47DE-A2A8-A6C2B19EE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Food</t>
   </si>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地下城图鉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机关蓝图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翻开主牌堆前3张陷阱牌，然后选1张，从额外牌堆选其任意改造版本将其替换，这之后，将翻开的牌洗回主牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,31 +90,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复1生命。可以额外消耗1张同名牌，改为回复3生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材料包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为1张道具牌充1能。可以额外消耗1张同名牌，改为充3能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>壶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从主牌堆抽2张牌。每次整理战利品只能使用1张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔镜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选手牌或场上1张牌，从主牌堆获得其1张同名牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1金币。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复1生命。可以额外消耗任意张同名牌，每消耗1张同名牌，额外回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒之壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。本牌在战利品区时，玩家手牌上限减1。被弃置时，抽3张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。本牌在战利品区时，玩家手牌上限减1。被弃置时，获得5金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursed coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursed pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城百科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,6 +236,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,10 +548,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -512,83 +565,131 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="C10">
         <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C536EB-C0BC-47DE-A2A8-A6C2B19EE912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1222B-07B5-4BFF-8713-3A0C6415C2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Food</t>
   </si>
@@ -98,14 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选手牌或场上1张牌，从主牌堆获得其1张同名牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +151,6 @@
   </si>
   <si>
     <t>Cursed pot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic mirror</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -227,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,7 +224,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,10 +538,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -565,28 +552,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -595,13 +585,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -610,86 +600,74 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="171" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -1,168 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1222B-07B5-4BFF-8713-3A0C6415C2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F74FC-221A-48C5-8CA1-49562ACC9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>① Activate: Add 1 food. Add 1 extra potion for every 2 [Food] card under this card.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从遗物牌堆翻开3张牌，选其中1张获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artifact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① Activate: Take the first three cards in Artifact Deck. Add one of them to your Equipment Zone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNameEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1金币。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复1生命。可以额外消耗任意张同名牌，每消耗1张同名牌，额外回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒之壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursed coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursed pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篝火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗2时间：重抽房间区任意牌，然后重整。&lt;br&gt;
+消耗1时间：重抽任意张手牌，然后可以将一张横置的升级牌复位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一捆卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>① Activate: Add 1 food. Add 1 extra potion for every 2 [Food] card under this card.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从遗物牌堆翻开3张牌，选其中1张获得。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Artifact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>① Activate: Take the first three cards in Artifact Deck. Add one of them to your Equipment Zone.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardNameEn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectEn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dungeonpedia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻开主牌堆前3张陷阱牌，然后选1张，从额外牌堆选其任意改造版本将其替换，这之后，将翻开的牌洗回主牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从主牌堆和备牌堆中各翻3张牌，然后从备牌堆翻出的牌中选1张牌替换主牌堆翻出的3张牌中的任意1张，这之后，将这些牌洗回各自的牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1金币。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复1生命。可以额外消耗任意张同名牌，每消耗1张同名牌，额外回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒之壶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽1张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能被使用。本牌在战利品区时，玩家手牌上限减1。被弃置时，抽3张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能被使用。本牌在战利品区时，玩家手牌上限减1。被弃置时，获得5金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pouch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed pot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下城百科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blueprint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一打药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点，使用“卷轴”道具牌时，可以弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点，使用“药剂”道具牌时，可以弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点，使用“食物”道具牌时，可以弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盒弹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点，使用“枪械”道具牌时，可以弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，获得5金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，将手牌补满，或抽3张牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,170 +534,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F74FC-221A-48C5-8CA1-49562ACC9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A164FF-1B8A-4BEA-B312-A89F4E6E4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,18 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得1金币。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。可以额外消耗任意张同名牌，每消耗1张同名牌，额外获得2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复1生命。可以额外消耗任意张同名牌，每消耗1张同名牌，额外回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>诅咒之壶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,52 +134,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗2时间：重抽房间区任意牌，然后重整。&lt;br&gt;
+    <t>一捆卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一打药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一盒弹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，获得5金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，将手牌补满，或抽3张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。使用“卷轴”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。使用“药水”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。使用“食物”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。使用“枪械”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗2时间：重抽房间区任意牌，将备战区所有牌加入手牌，然后重整。&lt;br&gt;
 消耗1时间：重抽任意张手牌，然后可以将一张横置的升级牌复位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一捆卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一打药剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一包干粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点，使用“卷轴”道具牌时，可以弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点，使用“药剂”道具牌时，可以弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点，使用“食物”道具牌时，可以弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一盒弹药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点，使用“枪械”道具牌时，可以弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，获得5金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，将手牌补满，或抽3张牌。</t>
+    <t>获得1道具点。可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1金币。可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复1生命。可以额外弃置任意张同名牌，每弃置1张同名牌，额外回复2生命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,11 +536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="71.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -567,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -581,10 +584,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -594,10 +597,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -607,10 +610,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -620,10 +623,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -636,28 +639,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -666,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -681,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -723,12 +726,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>3</v>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A164FF-1B8A-4BEA-B312-A89F4E6E4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22581957-3686-44E4-AEC4-00D1C13250FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,44 +154,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，获得5金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能被使用。本牌在战利品区时，玩家手牌基数减1。被弃置时，将手牌补满，或抽3张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。使用“卷轴”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。使用“药水”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。使用“食物”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。使用“枪械”道具牌时，也可以通过弃置本牌以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗2时间：重抽房间区任意牌，将备战区所有牌加入手牌，然后重整。&lt;br&gt;
-消耗1时间：重抽任意张手牌，然后可以将一张横置的升级牌复位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1金币。可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复1生命。可以额外弃置任意张同名牌，每弃置1张同名牌，额外回复2生命。</t>
+    <t>获得1道具点，可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。&lt;br&gt;
+也可以在使用“卷轴”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。&lt;br&gt;
+也可以在使用“药水”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。&lt;br&gt;
+也可以在使用“食物”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1道具点。&lt;br&gt;
+也可以在使用“枪械”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获得1金币，可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2金币。&lt;br&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复1生命，可以额外弃置任意张同名牌，每弃置1张同名牌，额外回复2生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗2时间，重抽房间区任意牌，将备战区所有牌加入手牌，然后重整。&lt;br&gt;
+消耗1时间，重抽任意张手牌，然后可以将一张横置的升级牌复位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。&lt;br&gt;
+在战利品区时，玩家手牌基数减1，且在消耗时间时，额外多消耗1时间。&lt;br&gt;
+被弃置时，玩家将手牌补满，或抽3张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能被使用。&lt;br&gt;
+在战利品区时，玩家手牌基数减1，且在每次重整后使玩家获得2金币。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -570,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -582,12 +590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -595,12 +603,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -608,12 +616,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -621,12 +629,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -634,12 +642,12 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -649,12 +657,12 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -669,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -694,12 +702,12 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -726,12 +734,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>3</v>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22581957-3686-44E4-AEC4-00D1C13250FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D595255-8504-48D7-A13D-7CC21C2D9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复1生命，可以额外弃置任意张同名牌，每弃置1张同名牌，额外回复2生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗2时间，重抽房间区任意牌，将备战区所有牌加入手牌，然后重整。&lt;br&gt;
 消耗1时间，重抽任意张手牌，然后可以将一张横置的升级牌复位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +196,10 @@
   <si>
     <t>不能被使用。&lt;br&gt;
 在战利品区时，玩家手牌基数减1，且在每次重整后使玩家获得2金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复1生命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>3</v>

--- a/sheet/LootCardData.xlsx
+++ b/sheet/LootCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D595255-8504-48D7-A13D-7CC21C2D9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB65287C-7D2B-4B95-8F22-C0CC62B3A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,33 +158,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得1道具点。&lt;br&gt;
-也可以在使用“卷轴”道具牌时同时使用本牌，以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。&lt;br&gt;
-也可以在使用“药水”道具牌时同时使用本牌，以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。&lt;br&gt;
-也可以在使用“食物”道具牌时同时使用本牌，以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1道具点。&lt;br&gt;
-也可以在使用“枪械”道具牌时同时使用本牌，以抵扣2道具点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">获得1金币，可以额外弃置任意张同名牌，每弃置1张同名牌，额外获得2金币。&lt;br&gt;
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗2时间，重抽房间区任意牌，将备战区所有牌加入手牌，然后重整。&lt;br&gt;
-消耗1时间，重抽任意张手牌，然后可以将一张横置的升级牌复位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,12 +169,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回复1生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不能被使用。&lt;br&gt;
-在战利品区时，玩家手牌基数减1，且在每次重整后使玩家获得2金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复1生命。</t>
+在战利品区时，玩家手牌基数减1，且在每次重整后使玩家获得3金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：①重抽任意张手牌，然后可以将一张横置的升级牌复位。②消耗1时间，重抽房间区任意牌，将备战区所有牌加入手牌，然后重整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：①获得1道具点。②使用“枪械”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：①获得1道具点。②使用“卷轴”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：①获得1道具点。②使用“药剂”道具牌时同时使用本牌，以抵扣2道具点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择：①获得1道具点。②使用“食物”道具牌时同时使用本牌，以抵扣2道具点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +540,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -590,54 +585,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -647,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -662,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -677,10 +672,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -695,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -707,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -739,10 +734,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
